--- a/ig/ch-orf/ValueSet-ch-orf-vs-consentstatus.xlsx
+++ b/ig/ch-orf/ValueSet-ch-orf-vs-consentstatus.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-orf/ValueSet-ch-orf-vs-consentstatus.xlsx
+++ b/ig/ch-orf/ValueSet-ch-orf-vs-consentstatus.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Consent Status" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOWMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-orf/ValueSet-ch-orf-vs-consentstatus.xlsx
+++ b/ig/ch-orf/ValueSet-ch-orf-vs-consentstatus.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Consent Status" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-orf/ValueSet-ch-orf-vs-consentstatus.xlsx
+++ b/ig/ch-orf/ValueSet-ch-orf-vs-consentstatus.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-orf/ValueSet-ch-orf-vs-consentstatus.xlsx
+++ b/ig/ch-orf/ValueSet-ch-orf-vs-consentstatus.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
